--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="3520" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="140">
   <si>
     <t>year</t>
   </si>
@@ -378,9 +378,6 @@
     <t>No Problem</t>
   </si>
   <si>
-    <t>Problem</t>
-  </si>
-  <si>
     <t>Don't Work</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>ABOUT RIGHT</t>
+  </si>
+  <si>
+    <t>No Real Problem</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -726,9 +732,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,8 +752,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="209">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -852,6 +858,9 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -953,6 +962,9 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1284,9 +1296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1483,19 +1495,19 @@
       <c r="E3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.61</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>0.02</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1569,19 +1581,19 @@
       <c r="E4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.51</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.46</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>0.03</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1655,19 +1667,19 @@
       <c r="E5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.33</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.65</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.02</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1741,19 +1753,19 @@
       <c r="E6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.72</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.01</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1827,19 +1839,19 @@
       <c r="E7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.71</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0.01</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1913,19 +1925,19 @@
       <c r="E8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.11</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.85</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.04</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1999,19 +2011,19 @@
       <c r="E9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.63</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.36</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.01</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2085,19 +2097,19 @@
       <c r="E10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.45</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.51</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>0.04</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2171,19 +2183,19 @@
       <c r="E11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.41</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.57999999999999996</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0.01</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2257,19 +2269,19 @@
       <c r="E12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.32</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.66</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>0.02</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -2343,19 +2355,19 @@
       <c r="E13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.31</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.68</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>0.01</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -2429,19 +2441,19 @@
       <c r="E14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0.71</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>0.01</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2515,19 +2527,19 @@
       <c r="E15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.49</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>0.48</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>0.03</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -2601,19 +2613,19 @@
       <c r="E16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.66</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>0.33</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>0.01</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2687,19 +2699,19 @@
       <c r="E17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.22</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>0.75</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>0.03</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -2773,19 +2785,19 @@
       <c r="E18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.22</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>0.76</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>0.02</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2859,19 +2871,19 @@
       <c r="E19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.26</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>0.72</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>0.02</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2945,19 +2957,19 @@
       <c r="E20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.49</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>0.49</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>0.02</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3041,22 +3053,22 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>30</v>
@@ -3117,32 +3129,32 @@
       <c r="E22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.5</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>0.35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="6">
+        <v>139</v>
+      </c>
+      <c r="J22" s="5">
         <v>0.04</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="6">
+        <v>29</v>
+      </c>
+      <c r="L22" s="5">
         <v>0.11</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>30</v>
@@ -3203,32 +3215,32 @@
       <c r="E23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.57999999999999996</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0.31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="6">
+        <v>139</v>
+      </c>
+      <c r="J23" s="5">
         <v>0.02</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="6">
+        <v>29</v>
+      </c>
+      <c r="L23" s="5">
         <v>0.09</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>30</v>
@@ -3289,32 +3301,32 @@
       <c r="E24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.5</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>0.3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" s="6">
+        <v>139</v>
+      </c>
+      <c r="J24" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="6">
+        <v>29</v>
+      </c>
+      <c r="L24" s="5">
         <v>0.13</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>30</v>
@@ -3375,32 +3387,32 @@
       <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.48</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.36</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="6">
+        <v>139</v>
+      </c>
+      <c r="J25" s="5">
         <v>0.03</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="6">
+        <v>29</v>
+      </c>
+      <c r="L25" s="5">
         <v>0.13</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>30</v>
@@ -3461,32 +3473,32 @@
       <c r="E26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.43</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>0.46</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="6">
+        <v>139</v>
+      </c>
+      <c r="J26" s="5">
         <v>0.03</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="6">
+        <v>29</v>
+      </c>
+      <c r="L26" s="5">
         <v>0.08</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>30</v>
@@ -3547,32 +3559,32 @@
       <c r="E27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.44</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>0.43</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="6">
+        <v>139</v>
+      </c>
+      <c r="J27" s="5">
         <v>0.06</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="6">
+        <v>29</v>
+      </c>
+      <c r="L27" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>30</v>
@@ -3633,32 +3645,32 @@
       <c r="E28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>0.27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="6">
+        <v>139</v>
+      </c>
+      <c r="J28" s="5">
         <v>0.02</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="6">
+        <v>29</v>
+      </c>
+      <c r="L28" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>30</v>
@@ -3719,32 +3731,32 @@
       <c r="E29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>0.53</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>0.38</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="6">
+        <v>139</v>
+      </c>
+      <c r="J29" s="5">
         <v>0.02</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="6">
+        <v>29</v>
+      </c>
+      <c r="L29" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>30</v>
@@ -3805,32 +3817,32 @@
       <c r="E30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0.57999999999999996</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>0.26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="6">
+        <v>139</v>
+      </c>
+      <c r="J30" s="5">
         <v>0.05</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="6">
+        <v>29</v>
+      </c>
+      <c r="L30" s="5">
         <v>0.11</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>30</v>
@@ -3891,32 +3903,32 @@
       <c r="E31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>0.48</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>0.38</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J31" s="6">
+        <v>139</v>
+      </c>
+      <c r="J31" s="5">
         <v>0.03</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L31" s="6">
+        <v>29</v>
+      </c>
+      <c r="L31" s="5">
         <v>0.11</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>30</v>
@@ -3977,32 +3989,32 @@
       <c r="E32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>0.4</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>0.4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" s="6">
+        <v>139</v>
+      </c>
+      <c r="J32" s="5">
         <v>0.06</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" s="6">
+        <v>29</v>
+      </c>
+      <c r="L32" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>30</v>
@@ -4063,32 +4075,32 @@
       <c r="E33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>0.5</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>0.35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="6">
+        <v>139</v>
+      </c>
+      <c r="J33" s="5">
         <v>0.03</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L33" s="6">
+        <v>29</v>
+      </c>
+      <c r="L33" s="5">
         <v>0.12</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>30</v>
@@ -4149,32 +4161,32 @@
       <c r="E34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>0.51</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>0.34</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" s="6">
+        <v>139</v>
+      </c>
+      <c r="J34" s="5">
         <v>0.06</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L34" s="6">
+        <v>29</v>
+      </c>
+      <c r="L34" s="5">
         <v>0.09</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>30</v>
@@ -4235,32 +4247,32 @@
       <c r="E35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>0.72</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>0.19</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" s="6">
+        <v>139</v>
+      </c>
+      <c r="J35" s="5">
         <v>0.02</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" s="6">
+        <v>29</v>
+      </c>
+      <c r="L35" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>30</v>
@@ -4321,32 +4333,32 @@
       <c r="E36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.31</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>0.47</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J36" s="6">
+        <v>139</v>
+      </c>
+      <c r="J36" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L36" s="6">
+        <v>29</v>
+      </c>
+      <c r="L36" s="5">
         <v>0.15</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>30</v>
@@ -4407,32 +4419,32 @@
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>0.46</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>0.39</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="6">
+        <v>139</v>
+      </c>
+      <c r="J37" s="5">
         <v>0.03</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L37" s="6">
+        <v>29</v>
+      </c>
+      <c r="L37" s="5">
         <v>0.12</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>30</v>
@@ -4493,32 +4505,32 @@
       <c r="E38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.47</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>0.37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="6">
+        <v>139</v>
+      </c>
+      <c r="J38" s="5">
         <v>0.06</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L38" s="6">
+        <v>29</v>
+      </c>
+      <c r="L38" s="5">
         <v>0.1</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>30</v>
@@ -4579,32 +4591,32 @@
       <c r="E39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>0.53</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>0.33</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="6">
+        <v>139</v>
+      </c>
+      <c r="J39" s="5">
         <v>0.02</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="6">
+        <v>29</v>
+      </c>
+      <c r="L39" s="5">
         <v>0.12</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>30</v>
@@ -4681,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -4751,31 +4763,31 @@
       <c r="E41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>0.02</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>0.13</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>0.46</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L41" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>0.03</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -4837,31 +4849,31 @@
       <c r="E42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0.03</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>0.21</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>0.37</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L42" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>0.04</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -4923,31 +4935,31 @@
       <c r="E43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>0.05</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>0.08</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>0.46</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L43" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <v>0.03</v>
       </c>
       <c r="O43" s="1" t="s">
@@ -5009,31 +5021,31 @@
       <c r="E44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>0.01</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>0.54</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L44" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <v>0.03</v>
       </c>
       <c r="O44" s="1" t="s">
@@ -5095,31 +5107,31 @@
       <c r="E45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>0.01</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>0.13</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>0.52</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L45" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <v>0.01</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -5181,31 +5193,31 @@
       <c r="E46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>0.01</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>0.15</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>0.61</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L46" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>0.02</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -5267,31 +5279,31 @@
       <c r="E47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>0.03</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>0.12</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>0.31</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L47" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>0.04</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -5353,31 +5365,31 @@
       <c r="E48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>0.06</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>0.23</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>0.41</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L48" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <v>0.03</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -5439,31 +5451,31 @@
       <c r="E49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.02</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>0.13</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>0.62</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L49" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <v>0.01</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -5525,31 +5537,31 @@
       <c r="E50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>0.01</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>0.09</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <v>0.65</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L50" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N50" s="6">
+      <c r="N50" s="5">
         <v>0.04</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -5611,31 +5623,31 @@
       <c r="E51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>0.08</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>0.11</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L51" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N51" s="6">
+      <c r="N51" s="5">
         <v>0.03</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -5697,31 +5709,31 @@
       <c r="E52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>0.01</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>0.48</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L52" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N52" s="6">
+      <c r="N52" s="5">
         <v>0.03</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -5783,31 +5795,31 @@
       <c r="E53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>0.03</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>0.21</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>0.43</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L53" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N53" s="6">
+      <c r="N53" s="5">
         <v>0.03</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -5869,31 +5881,31 @@
       <c r="E54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>0.02</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>0.27</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>0.32</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L54" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N54" s="6">
+      <c r="N54" s="5">
         <v>0.04</v>
       </c>
       <c r="O54" s="1" t="s">
@@ -5955,31 +5967,31 @@
       <c r="E55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>0.01</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>0.05</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>0.51</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L55" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N55" s="6">
+      <c r="N55" s="5">
         <v>0.01</v>
       </c>
       <c r="O55" s="1" t="s">
@@ -6041,31 +6053,31 @@
       <c r="E56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>0.02</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>0.56000000000000005</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L56" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N56" s="6">
+      <c r="N56" s="5">
         <v>0.04</v>
       </c>
       <c r="O56" s="1" t="s">
@@ -6127,31 +6139,31 @@
       <c r="E57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>0.03</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>0.08</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>0.52</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L57" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N57" s="6">
+      <c r="N57" s="5">
         <v>0.02</v>
       </c>
       <c r="O57" s="1" t="s">
@@ -6213,31 +6225,31 @@
       <c r="E58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>0.01</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>0.19</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>0.39</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L58" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <v>0.04</v>
       </c>
       <c r="O58" s="1" t="s">
@@ -6297,19 +6309,19 @@
         <v>28</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -6383,27 +6395,27 @@
         <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>0.62</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="5">
         <v>0.09</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -6469,27 +6481,27 @@
         <v>104</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>0.63</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="5">
         <v>0.11</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -6555,27 +6567,27 @@
         <v>33</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H62" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <v>0.65</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="5">
         <v>0.05</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -6641,27 +6653,27 @@
         <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H63" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="5">
         <v>0.13</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -6727,27 +6739,27 @@
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H64" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <v>0.6</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -6813,27 +6825,27 @@
         <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F65" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H65" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <v>0.67</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="5">
         <v>0.1</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -6899,27 +6911,27 @@
         <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H66" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="5">
         <v>0.08</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -6985,27 +6997,27 @@
         <v>36</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <v>0.61</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="5">
         <v>0.12</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -7071,27 +7083,27 @@
         <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H68" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J68" s="6">
+      <c r="J68" s="5">
         <v>0.61</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -7157,27 +7169,27 @@
         <v>38</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H69" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <v>0.63</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="5">
         <v>0.09</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -7243,27 +7255,27 @@
         <v>39</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F70" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H70" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J70" s="6">
+      <c r="J70" s="5">
         <v>0.63</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70" s="5">
         <v>0.09</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -7329,27 +7341,27 @@
         <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H71" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J71" s="6">
+      <c r="J71" s="5">
         <v>0.61</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="5">
         <v>0.08</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -7415,27 +7427,27 @@
         <v>41</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H72" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J72" s="6">
+      <c r="J72" s="5">
         <v>0.63</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="5">
         <v>0.1</v>
       </c>
       <c r="M72" s="1" t="s">
@@ -7501,27 +7513,27 @@
         <v>42</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="6">
+      <c r="H73" s="5">
         <v>0.15</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H73" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <v>0.66</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73" s="5">
         <v>0.04</v>
       </c>
       <c r="M73" s="1" t="s">
@@ -7587,27 +7599,27 @@
         <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J74" s="6">
+      <c r="J74" s="5">
         <v>0.56000000000000005</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74" s="5">
         <v>0.11</v>
       </c>
       <c r="M74" s="1" t="s">
@@ -7673,27 +7685,27 @@
         <v>44</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J75" s="6">
+      <c r="J75" s="5">
         <v>0.62</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="5">
         <v>0.13</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -7759,27 +7771,27 @@
         <v>102</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H76" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J76" s="6">
+      <c r="J76" s="5">
         <v>0.57999999999999996</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="5">
         <v>0.12</v>
       </c>
       <c r="M76" s="1" t="s">
@@ -7845,27 +7857,27 @@
         <v>103</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H77" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <v>0.66</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="5">
         <v>0.06</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -7932,2499 +7944,2499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7" ht="14">
-      <c r="A1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.37</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.61</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.02</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.51</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.46</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.03</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.33</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.65</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.02</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.27</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.72</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.01</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.71</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.01</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>0.11</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.85</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.04</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>0.63</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>0.36</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0.01</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>0.45</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.51</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.04</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>0.41</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.01</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>0.32</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.66</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.02</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>0.31</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>0.68</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0.01</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>0.71</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>0.01</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>0.49</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>0.48</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>0.03</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>0.66</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>0.33</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>0.01</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>0.22</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>0.75</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>0.03</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>0.22</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>0.76</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>0.02</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>0.26</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>0.72</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>0.02</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>0.49</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>0.49</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>0.02</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="14">
-      <c r="A43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4"/>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>0.5</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>0.35</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>0.04</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>0.11</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>0.31</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>0.02</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>0.09</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>0.5</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>0.3</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>0.13</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>0.48</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>0.36</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>0.03</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>0.13</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>0.43</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>0.46</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>0.03</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>0.08</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="6"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>0.44</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>0.43</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>0.06</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>0.27</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>0.02</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="6"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>0.53</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>0.38</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>0.02</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>0.26</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>0.05</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>0.11</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>0.48</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>0.38</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>0.03</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>0.11</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>0.4</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>0.4</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>0.06</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>0.5</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>0.35</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>0.03</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>0.12</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>0.51</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>0.34</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>0.06</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>0.09</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G73" s="8"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>0.72</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>0.19</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>0.02</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>0.31</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>0.47</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>0.15</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>0.46</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>0.39</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>0.03</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>0.12</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="6"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>0.47</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <v>0.37</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>0.06</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>0.1</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>0.53</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <v>0.33</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>0.02</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>0.12</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="14">
-      <c r="A84" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="A84" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4"/>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" s="8"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>0.02</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <v>0.13</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>0.46</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>0.36</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>0.03</v>
       </c>
-      <c r="G88" s="6"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" ht="15">
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="E90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>0.03</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>0.21</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>0.37</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>0.35</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>0.04</v>
       </c>
-      <c r="G92" s="6"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>0.05</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>0.08</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>0.46</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>0.38</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>0.03</v>
       </c>
-      <c r="G93" s="8"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>0.01</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>0.54</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>0.35</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>0.03</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>0.01</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <v>0.13</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>0.52</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>0.33</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>0.01</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="4"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G97" s="8"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>0.01</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="5">
         <v>0.15</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="5">
         <v>0.61</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>0.21</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>0.02</v>
       </c>
-      <c r="G99" s="6"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>0.03</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="5">
         <v>0.12</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="5">
         <v>0.31</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>0.5</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <v>0.04</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="8"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>0.06</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="5">
         <v>0.23</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>0.41</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>0.27</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>0.03</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>0.02</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="5">
         <v>0.13</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="5">
         <v>0.62</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>0.22</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <v>0.01</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>0.01</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="5">
         <v>0.09</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>0.65</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>0.21</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>0.04</v>
       </c>
-      <c r="G106" s="6"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>0</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="5">
         <v>0.08</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>0.11</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>0.78</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <v>0.03</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" s="6"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>0.01</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>0.48</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>0.41</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>0.03</v>
       </c>
-      <c r="G111" s="6"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>0.03</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="5">
         <v>0.21</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>0.43</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>0.3</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <v>0.03</v>
       </c>
-      <c r="G112" s="6"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="D114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" s="6"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>0.02</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="5">
         <v>0.27</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="5">
         <v>0.32</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>0.35</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <v>0.04</v>
       </c>
-      <c r="G116" s="6"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>0.01</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <v>0.05</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="5">
         <v>0.51</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>0.42</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="5">
         <v>0.01</v>
       </c>
-      <c r="G117" s="6"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>0.02</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>0.31</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <v>0.04</v>
       </c>
-      <c r="G118" s="6"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" s="6"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="4"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>0.03</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="5">
         <v>0.08</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="5">
         <v>0.52</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>0.35</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="5">
         <v>0.02</v>
       </c>
-      <c r="G122" s="6"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>0.01</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="5">
         <v>0.19</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="5">
         <v>0.39</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>0.37</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="5">
         <v>0.04</v>
       </c>
-      <c r="G123" s="6"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" ht="14">
-      <c r="A126" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="A126" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4"/>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>0.19</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="5">
         <v>0.1</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="5">
         <v>0.62</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>0.09</v>
       </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="5">
         <v>0.12</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="5">
         <v>0.63</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>0.11</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>0.17</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="5">
         <v>0.13</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="5">
         <v>0.65</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>0.05</v>
       </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="8"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="5">
         <v>0.26</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="5">
         <v>0.06</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>0.13</v>
       </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="5">
         <v>0.23</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="5">
         <v>0.1</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="5">
         <v>0.6</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="5">
         <v>0.17</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="5">
         <v>0.06</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="5">
         <v>0.67</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="5">
         <v>0.1</v>
       </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="5">
         <v>0.21</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="5">
         <v>0.08</v>
       </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>0.15</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="5">
         <v>0.12</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="5">
         <v>0.61</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>0.12</v>
       </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="5">
         <v>0.21</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="5">
         <v>0.11</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="5">
         <v>0.61</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="5">
         <v>0.18</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="5">
         <v>0.1</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="5">
         <v>0.63</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>0.09</v>
       </c>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="5">
         <v>0.21</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="5">
         <v>0.63</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>0.09</v>
       </c>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="D150" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="5">
         <v>0.21</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="5">
         <v>0.1</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="5">
         <v>0.61</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>0.08</v>
       </c>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="5">
         <v>0.16</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="5">
         <v>0.11</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="5">
         <v>0.63</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>0.1</v>
       </c>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F155" s="6"/>
-      <c r="G155" s="8"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="7"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="5">
         <v>0.15</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="5">
         <v>0.15</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="5">
         <v>0.66</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="5">
         <v>0.04</v>
       </c>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="5">
         <v>0.04</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>0.11</v>
       </c>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="5">
         <v>0.13</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="5">
         <v>0.12</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="5">
         <v>0.62</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>0.13</v>
       </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="5">
         <v>0.18</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="5">
         <v>0.12</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>0.12</v>
       </c>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="5">
         <v>0.21</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="5">
         <v>0.66</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>0.06</v>
       </c>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
